--- a/data/trans_orig/Q03B_FES-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_FES-Clase-trans_orig.xlsx
@@ -12605,7 +12605,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
@@ -29486,7 +29486,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
@@ -46367,7 +46367,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
